--- a/Snacks_Fund.xlsx
+++ b/Snacks_Fund.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navneet Chaudhary\Desktop\Fund\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A7189D-D03A-4752-8914-5E03162231F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B8C9CC-9CC5-49BE-B98A-52238A2955FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2560A9AC-C4D8-4295-98D2-145EE83BDA15}"/>
   </bookViews>
@@ -36,19 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
-  <si>
-    <t>HEMANG JAYESH S</t>
-  </si>
-  <si>
-    <t>HIMANSHU  BHARG</t>
-  </si>
-  <si>
-    <t>SaureenDesai</t>
-  </si>
-  <si>
-    <t>PRAJAPATI DIPTI</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Preety</t>
   </si>
@@ -68,9 +56,6 @@
     <t>Snacks</t>
   </si>
   <si>
-    <t>Ranjeet sharma</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -78,12 +63,30 @@
   </si>
   <si>
     <t>Contribution</t>
+  </si>
+  <si>
+    <t>Hemang Jayesh S</t>
+  </si>
+  <si>
+    <t>Himanshu  Bharg</t>
+  </si>
+  <si>
+    <t>Saureendesai</t>
+  </si>
+  <si>
+    <t>Prajapati Dipti</t>
+  </si>
+  <si>
+    <t>Ranjeet Sharma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -160,10 +163,13 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +507,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,31 +515,32 @@
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
@@ -544,13 +551,13 @@
         <v>45766</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7">
+        <v>9</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12">
         <v>500</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="12">
         <f>E2-D2</f>
         <v>500</v>
       </c>
@@ -564,34 +571,34 @@
         <v>45766</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12">
         <v>500</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="12">
         <f>F2+E3-D3</f>
         <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <f t="shared" ref="A4:A12" si="0">A3+1</f>
+        <f t="shared" ref="A4:A9" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="6">
         <v>45766</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7">
+        <v>11</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12">
         <v>500</v>
       </c>
-      <c r="F4" s="8">
-        <f t="shared" ref="F4:F12" si="1">F3+E4-D4</f>
+      <c r="F4" s="12">
+        <f t="shared" ref="F4:F9" si="1">F3+E4-D4</f>
         <v>1500</v>
       </c>
     </row>
@@ -604,13 +611,13 @@
         <v>45766</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7">
+        <v>12</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12">
         <v>500</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="12">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
@@ -624,13 +631,13 @@
         <v>45766</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12">
         <v>500</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="12">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
@@ -644,13 +651,13 @@
         <v>45766</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12">
         <v>500</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="12">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
@@ -664,17 +671,16 @@
         <v>45766</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7">
+        <v>13</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
         <v>536</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="12">
         <f t="shared" si="1"/>
         <v>3536</v>
       </c>
-      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -685,78 +691,31 @@
         <v>45766</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="7">
+        <v>5</v>
+      </c>
+      <c r="D9" s="12">
         <v>536</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="6">
-        <v>45767</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="11">
-        <v>1000</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B10+1</f>
-        <v>45768</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="11">
-        <v>5000</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="1"/>
-        <v>9000</v>
-      </c>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="6">
-        <f>B11+1</f>
-        <v>45769</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2000</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8">
-        <f t="shared" si="1"/>
-        <v>7000</v>
-      </c>
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="F12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Snacks_Fund.xlsx
+++ b/Snacks_Fund.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navneet Chaudhary\Desktop\Fund\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B8C9CC-9CC5-49BE-B98A-52238A2955FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8678B625-6CC8-4C73-98D0-00A34A40D584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2560A9AC-C4D8-4295-98D2-145EE83BDA15}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Preety</t>
   </si>
@@ -84,10 +84,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +108,13 @@
       <sz val="12"/>
       <name val="Source Sans Pro"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -147,10 +155,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -169,9 +178,11 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -507,7 +518,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G9"/>
+      <selection activeCell="A10" sqref="A10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +564,9 @@
       <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
       <c r="E2" s="12">
         <v>500</v>
       </c>
@@ -573,7 +586,9 @@
       <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
       <c r="E3" s="12">
         <v>500</v>
       </c>
@@ -593,12 +608,14 @@
       <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
       <c r="E4" s="12">
         <v>500</v>
       </c>
       <c r="F4" s="12">
-        <f t="shared" ref="F4:F9" si="1">F3+E4-D4</f>
+        <f t="shared" ref="F4:F10" si="1">F3+E4-D4</f>
         <v>1500</v>
       </c>
     </row>
@@ -613,7 +630,9 @@
       <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
       <c r="E5" s="12">
         <v>500</v>
       </c>
@@ -633,7 +652,9 @@
       <c r="C6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
       <c r="E6" s="12">
         <v>500</v>
       </c>
@@ -653,7 +674,9 @@
       <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
       <c r="E7" s="12">
         <v>500</v>
       </c>
@@ -673,7 +696,9 @@
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
       <c r="E8" s="12">
         <v>536</v>
       </c>
@@ -696,16 +721,34 @@
       <c r="D9" s="12">
         <v>536</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
       <c r="F9" s="12">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="F10" s="9"/>
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>45767</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12">
+        <v>100</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="1"/>
+        <v>2900</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>

--- a/Snacks_Fund.xlsx
+++ b/Snacks_Fund.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navneet Chaudhary\Desktop\Fund\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8678B625-6CC8-4C73-98D0-00A34A40D584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3A2F92-5CC7-4B2F-A6BB-B4BF68B804A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2560A9AC-C4D8-4295-98D2-145EE83BDA15}"/>
   </bookViews>
@@ -518,7 +518,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:F10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,14 +740,14 @@
         <v>4</v>
       </c>
       <c r="D10" s="12">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="13">
         <v>0</v>
       </c>
       <c r="F10" s="12">
         <f t="shared" si="1"/>
-        <v>2900</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">

--- a/Snacks_Fund.xlsx
+++ b/Snacks_Fund.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navneet Chaudhary\Desktop\Fund\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3A2F92-5CC7-4B2F-A6BB-B4BF68B804A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095088D8-23E4-4C9E-B402-CF559AD9CE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2560A9AC-C4D8-4295-98D2-145EE83BDA15}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Preety</t>
   </si>
@@ -159,7 +159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -180,6 +180,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -518,7 +525,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F9" sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,25 +737,12 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6">
-        <v>45767</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="12">
-        <v>200</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12">
-        <f t="shared" si="1"/>
-        <v>2800</v>
-      </c>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>

--- a/Snacks_Fund.xlsx
+++ b/Snacks_Fund.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navneet Chaudhary\Desktop\Fund\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095088D8-23E4-4C9E-B402-CF559AD9CE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC7CDC7-FFAA-4E78-9502-890B71ACAA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2560A9AC-C4D8-4295-98D2-145EE83BDA15}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Preety</t>
   </si>
@@ -159,7 +159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -180,13 +180,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -525,7 +518,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="A1:F9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +599,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <f t="shared" ref="A4:A9" si="0">A3+1</f>
+        <f t="shared" ref="A4:A10" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="6">
@@ -737,12 +730,26 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="17"/>
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>45771</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="12">
+        <v>820</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="1"/>
+        <v>2180</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>

--- a/Snacks_Fund.xlsx
+++ b/Snacks_Fund.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navneet Chaudhary\Desktop\Fund\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC7CDC7-FFAA-4E78-9502-890B71ACAA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA850C5A-86C8-4621-93C4-205F2D543CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2560A9AC-C4D8-4295-98D2-145EE83BDA15}"/>
   </bookViews>
   <sheets>
     <sheet name="Snacks_Fund" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Snacks_Fund!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,9 +41,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
-    <t>Preety</t>
-  </si>
-  <si>
     <t>Sl. No.</t>
   </si>
   <si>
@@ -50,9 +50,6 @@
     <t>Contributors</t>
   </si>
   <si>
-    <t>Navneet Chaudhary</t>
-  </si>
-  <si>
     <t>Snacks</t>
   </si>
   <si>
@@ -65,19 +62,25 @@
     <t>Contribution</t>
   </si>
   <si>
-    <t>Hemang Jayesh S</t>
-  </si>
-  <si>
-    <t>Himanshu  Bharg</t>
-  </si>
-  <si>
-    <t>Saureendesai</t>
-  </si>
-  <si>
-    <t>Prajapati Dipti</t>
-  </si>
-  <si>
-    <t>Ranjeet Sharma</t>
+    <t>Member 1</t>
+  </si>
+  <si>
+    <t>Member 2</t>
+  </si>
+  <si>
+    <t>Member 3</t>
+  </si>
+  <si>
+    <t>Member 4</t>
+  </si>
+  <si>
+    <t>Member 5</t>
+  </si>
+  <si>
+    <t>Member 6</t>
+  </si>
+  <si>
+    <t>Member 7</t>
   </si>
 </sst>
 </file>
@@ -159,7 +162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -180,6 +183,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -517,9 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -527,29 +529,29 @@
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="H1" s="8"/>
     </row>
@@ -562,7 +564,7 @@
         <v>45766</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="13">
         <v>0</v>
@@ -584,7 +586,7 @@
         <v>45766</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="13">
         <v>0</v>
@@ -606,7 +608,7 @@
         <v>45766</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="13">
         <v>0</v>
@@ -628,7 +630,7 @@
         <v>45766</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="13">
         <v>0</v>
@@ -650,7 +652,7 @@
         <v>45766</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D6" s="13">
         <v>0</v>
@@ -672,7 +674,7 @@
         <v>45766</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D7" s="13">
         <v>0</v>
@@ -700,11 +702,11 @@
         <v>0</v>
       </c>
       <c r="E8" s="12">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="F8" s="12">
         <f t="shared" si="1"/>
-        <v>3536</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -716,7 +718,7 @@
         <v>45766</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" s="12">
         <v>536</v>
@@ -726,7 +728,7 @@
       </c>
       <c r="F9" s="12">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -738,7 +740,7 @@
         <v>45771</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="12">
         <v>820</v>
@@ -748,13 +750,13 @@
       </c>
       <c r="F10" s="12">
         <f t="shared" si="1"/>
-        <v>2180</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
-      <c r="F11" s="9"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
@@ -762,6 +764,7 @@
       <c r="F12" s="9"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Snacks_Fund.xlsx
+++ b/Snacks_Fund.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navneet Chaudhary\Desktop\Fund\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA850C5A-86C8-4621-93C4-205F2D543CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BB8A93-130B-465D-A99A-F61DEF608E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2560A9AC-C4D8-4295-98D2-145EE83BDA15}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Contributors</t>
   </si>
   <si>
-    <t>Snacks</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -81,6 +78,12 @@
   </si>
   <si>
     <t>Member 7</t>
+  </si>
+  <si>
+    <t>Burger</t>
+  </si>
+  <si>
+    <t>Ghantia</t>
   </si>
 </sst>
 </file>
@@ -521,7 +524,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -539,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -564,7 +569,7 @@
         <v>45766</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="13">
         <v>0</v>
@@ -586,7 +591,7 @@
         <v>45766</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="13">
         <v>0</v>
@@ -608,7 +613,7 @@
         <v>45766</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13">
         <v>0</v>
@@ -630,7 +635,7 @@
         <v>45766</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="13">
         <v>0</v>
@@ -652,7 +657,7 @@
         <v>45766</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="13">
         <v>0</v>
@@ -674,7 +679,7 @@
         <v>45766</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="13">
         <v>0</v>
@@ -696,7 +701,7 @@
         <v>45766</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="13">
         <v>0</v>
@@ -718,7 +723,7 @@
         <v>45766</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D9" s="12">
         <v>536</v>
@@ -740,7 +745,7 @@
         <v>45771</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D10" s="12">
         <v>820</v>

--- a/Snacks_Fund.xlsx
+++ b/Snacks_Fund.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navneet Chaudhary\Desktop\Fund\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BB8A93-130B-465D-A99A-F61DEF608E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4ACDC4C-5C80-4042-831A-D976E31D5602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2560A9AC-C4D8-4295-98D2-145EE83BDA15}"/>
   </bookViews>
@@ -80,10 +80,10 @@
     <t>Member 7</t>
   </si>
   <si>
-    <t>Burger</t>
-  </si>
-  <si>
-    <t>Ghantia</t>
+    <t>Ghantia from Oshwal</t>
+  </si>
+  <si>
+    <t>Burger from Micro</t>
   </si>
 </sst>
 </file>
@@ -525,14 +525,14 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -723,7 +723,7 @@
         <v>45766</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="12">
         <v>536</v>
@@ -745,7 +745,7 @@
         <v>45771</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="12">
         <v>820</v>

--- a/Snacks_Fund.xlsx
+++ b/Snacks_Fund.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navneet Chaudhary\Desktop\Fund\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4ACDC4C-5C80-4042-831A-D976E31D5602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452F1105-2A32-4F9D-B067-32423E446D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2560A9AC-C4D8-4295-98D2-145EE83BDA15}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -59,31 +59,34 @@
     <t>Contribution</t>
   </si>
   <si>
-    <t>Member 1</t>
-  </si>
-  <si>
-    <t>Member 2</t>
-  </si>
-  <si>
-    <t>Member 3</t>
-  </si>
-  <si>
-    <t>Member 4</t>
-  </si>
-  <si>
-    <t>Member 5</t>
-  </si>
-  <si>
-    <t>Member 6</t>
-  </si>
-  <si>
-    <t>Member 7</t>
-  </si>
-  <si>
     <t>Ghantia from Oshwal</t>
   </si>
   <si>
     <t>Burger from Micro</t>
+  </si>
+  <si>
+    <t>Deepshikha</t>
+  </si>
+  <si>
+    <t>Hemang Jayesh S</t>
+  </si>
+  <si>
+    <t>Himanshu  Bharg</t>
+  </si>
+  <si>
+    <t>Saureen desai</t>
+  </si>
+  <si>
+    <t>Prajapati Dipti</t>
+  </si>
+  <si>
+    <t>Preety</t>
+  </si>
+  <si>
+    <t>Navneet Chaudhary</t>
+  </si>
+  <si>
+    <t>Ranjeet Sharma</t>
   </si>
 </sst>
 </file>
@@ -137,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -160,12 +163,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -186,7 +200,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -525,7 +540,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +584,7 @@
         <v>45766</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="13">
         <v>0</v>
@@ -591,7 +606,7 @@
         <v>45766</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" s="13">
         <v>0</v>
@@ -613,7 +628,7 @@
         <v>45766</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13">
         <v>0</v>
@@ -622,7 +637,7 @@
         <v>500</v>
       </c>
       <c r="F4" s="12">
-        <f t="shared" ref="F4:F10" si="1">F3+E4-D4</f>
+        <f t="shared" ref="F4:F11" si="1">F3+E4-D4</f>
         <v>1500</v>
       </c>
     </row>
@@ -635,7 +650,7 @@
         <v>45766</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13">
         <v>0</v>
@@ -657,7 +672,7 @@
         <v>45766</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" s="13">
         <v>0</v>
@@ -679,7 +694,7 @@
         <v>45766</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" s="13">
         <v>0</v>
@@ -701,7 +716,7 @@
         <v>45766</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8" s="13">
         <v>0</v>
@@ -723,7 +738,7 @@
         <v>45766</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D9" s="12">
         <v>536</v>
@@ -745,7 +760,7 @@
         <v>45771</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D10" s="12">
         <v>820</v>
@@ -759,9 +774,25 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="F11" s="14"/>
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>45778</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>500</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="1"/>
+        <v>2644</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>

--- a/Snacks_Fund.xlsx
+++ b/Snacks_Fund.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navneet Chaudhary\Desktop\Fund\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452F1105-2A32-4F9D-B067-32423E446D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA85CE9-C91D-4971-B0D2-CF9CF210EE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2560A9AC-C4D8-4295-98D2-145EE83BDA15}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Ranjeet Sharma</t>
+  </si>
+  <si>
+    <t>Pizza from Dominos</t>
   </si>
 </sst>
 </file>
@@ -179,7 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -193,15 +196,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -540,7 +544,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +552,7 @@
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -586,13 +590,13 @@
       <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="13">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12">
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
         <v>500</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <f>E2-D2</f>
         <v>500</v>
       </c>
@@ -608,13 +612,13 @@
       <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="13">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
         <v>500</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <f>F2+E3-D3</f>
         <v>1000</v>
       </c>
@@ -630,14 +634,14 @@
       <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
         <v>500</v>
       </c>
-      <c r="F4" s="12">
-        <f t="shared" ref="F4:F11" si="1">F3+E4-D4</f>
+      <c r="F4" s="11">
+        <f t="shared" ref="F4:F12" si="1">F3+E4-D4</f>
         <v>1500</v>
       </c>
     </row>
@@ -652,13 +656,13 @@
       <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
         <v>500</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
@@ -674,13 +678,13 @@
       <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
         <v>500</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
@@ -696,13 +700,13 @@
       <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
         <v>500</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
@@ -718,13 +722,13 @@
       <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="13">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
         <v>500</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <f t="shared" si="1"/>
         <v>3500</v>
       </c>
@@ -740,13 +744,13 @@
       <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>536</v>
       </c>
-      <c r="E9" s="13">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
         <f t="shared" si="1"/>
         <v>2964</v>
       </c>
@@ -762,42 +766,55 @@
       <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>820</v>
       </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12">
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
         <f t="shared" si="1"/>
         <v>2144</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>45778</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="13">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
         <v>500</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <f t="shared" si="1"/>
         <v>2644</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="F12" s="9"/>
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>45778</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1052.0999999999999</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="1"/>
+        <v>1591.9</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}"/>

--- a/Snacks_Fund.xlsx
+++ b/Snacks_Fund.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navneet Chaudhary\Desktop\Fund\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA85CE9-C91D-4971-B0D2-CF9CF210EE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9519DE95-BFE4-40A7-B00A-D174FCA8B913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2560A9AC-C4D8-4295-98D2-145EE83BDA15}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>Ranjeet Sharma</t>
-  </si>
-  <si>
-    <t>Pizza from Dominos</t>
   </si>
 </sst>
 </file>
@@ -143,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -166,23 +163,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -196,16 +182,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -544,7 +529,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,13 +575,13 @@
       <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="12">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11">
-        <v>500</v>
-      </c>
-      <c r="F2" s="11">
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <v>500</v>
+      </c>
+      <c r="F2" s="9">
         <f>E2-D2</f>
         <v>500</v>
       </c>
@@ -612,13 +597,13 @@
       <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>500</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>500</v>
+      </c>
+      <c r="F3" s="9">
         <f>F2+E3-D3</f>
         <v>1000</v>
       </c>
@@ -634,13 +619,13 @@
       <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11">
-        <v>500</v>
-      </c>
-      <c r="F4" s="11">
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>500</v>
+      </c>
+      <c r="F4" s="9">
         <f t="shared" ref="F4:F12" si="1">F3+E4-D4</f>
         <v>1500</v>
       </c>
@@ -656,13 +641,13 @@
       <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11">
-        <v>500</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>500</v>
+      </c>
+      <c r="F5" s="9">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
@@ -678,13 +663,13 @@
       <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11">
-        <v>500</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>500</v>
+      </c>
+      <c r="F6" s="9">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
@@ -700,13 +685,13 @@
       <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11">
-        <v>500</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>500</v>
+      </c>
+      <c r="F7" s="9">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
@@ -722,13 +707,13 @@
       <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11">
-        <v>500</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>500</v>
+      </c>
+      <c r="F8" s="9">
         <f t="shared" si="1"/>
         <v>3500</v>
       </c>
@@ -744,13 +729,13 @@
       <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <v>536</v>
       </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11">
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
         <f t="shared" si="1"/>
         <v>2964</v>
       </c>
@@ -766,55 +751,45 @@
       <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>820</v>
       </c>
-      <c r="E10" s="12">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
         <f t="shared" si="1"/>
         <v>2144</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="6">
         <v>45778</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
-        <v>500</v>
-      </c>
-      <c r="F11" s="11">
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>500</v>
+      </c>
+      <c r="F11" s="9">
         <f t="shared" si="1"/>
         <v>2644</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10">
-        <v>45778</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="16">
-        <v>1052.0999999999999</v>
-      </c>
-      <c r="F12" s="11">
-        <f t="shared" si="1"/>
-        <v>1591.9</v>
-      </c>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}"/>

--- a/Snacks_Fund.xlsx
+++ b/Snacks_Fund.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navneet Chaudhary\Desktop\Fund\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9519DE95-BFE4-40A7-B00A-D174FCA8B913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7BDFAE-0970-42C9-B0CC-6AF1D10E681B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2560A9AC-C4D8-4295-98D2-145EE83BDA15}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>Contribution</t>
   </si>
   <si>
-    <t>Ghantia from Oshwal</t>
-  </si>
-  <si>
     <t>Burger from Micro</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>Ranjeet Sharma</t>
+  </si>
+  <si>
+    <t>Ghatia from Oshwal</t>
   </si>
 </sst>
 </file>
@@ -168,7 +168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -184,13 +184,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -529,7 +528,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +572,7 @@
         <v>45766</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="10">
         <v>0</v>
@@ -595,7 +594,7 @@
         <v>45766</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="10">
         <v>0</v>
@@ -617,7 +616,7 @@
         <v>45766</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="10">
         <v>0</v>
@@ -626,7 +625,7 @@
         <v>500</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" ref="F4:F12" si="1">F3+E4-D4</f>
+        <f t="shared" ref="F4:F11" si="1">F3+E4-D4</f>
         <v>1500</v>
       </c>
     </row>
@@ -639,7 +638,7 @@
         <v>45766</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="10">
         <v>0</v>
@@ -661,7 +660,7 @@
         <v>45766</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="10">
         <v>0</v>
@@ -683,7 +682,7 @@
         <v>45766</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="10">
         <v>0</v>
@@ -705,7 +704,7 @@
         <v>45766</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="10">
         <v>0</v>
@@ -727,7 +726,7 @@
         <v>45766</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D9" s="9">
         <v>536</v>
@@ -749,7 +748,7 @@
         <v>45771</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="9">
         <v>820</v>
@@ -770,7 +769,7 @@
         <v>45778</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="10">
         <v>0</v>
@@ -786,10 +785,8 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="15"/>
+      <c r="D12" s="13"/>
+      <c r="F12" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}"/>

--- a/Snacks_Fund.xlsx
+++ b/Snacks_Fund.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navneet Chaudhary\Desktop\Fund\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7BDFAE-0970-42C9-B0CC-6AF1D10E681B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA67BE1-EB2B-4D0E-B1F6-FBF91CC2A9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2560A9AC-C4D8-4295-98D2-145EE83BDA15}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -168,7 +168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -184,12 +184,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -528,7 +523,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +620,7 @@
         <v>500</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" ref="F4:F11" si="1">F3+E4-D4</f>
+        <f t="shared" ref="F4:F12" si="1">F3+E4-D4</f>
         <v>1500</v>
       </c>
     </row>
@@ -783,10 +778,23 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="F12" s="14"/>
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>45780</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="9">
+        <v>500</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="1"/>
+        <v>3144</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}"/>

--- a/Snacks_Fund.xlsx
+++ b/Snacks_Fund.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navneet Chaudhary\Desktop\Fund\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA67BE1-EB2B-4D0E-B1F6-FBF91CC2A9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C69A96-24E1-4EF4-B987-B311D2964396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2560A9AC-C4D8-4295-98D2-145EE83BDA15}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -184,7 +184,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -520,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F13" sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,7 @@
         <v>500</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" ref="F4:F12" si="1">F3+E4-D4</f>
+        <f t="shared" ref="F4:F13" si="1">F3+E4-D4</f>
         <v>1500</v>
       </c>
     </row>
@@ -787,13 +787,36 @@
       <c r="C12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
       <c r="E12" s="9">
         <v>500</v>
       </c>
       <c r="F12" s="9">
         <f t="shared" si="1"/>
         <v>3144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>45783</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>500</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="1"/>
+        <v>3644</v>
       </c>
     </row>
   </sheetData>

--- a/Snacks_Fund.xlsx
+++ b/Snacks_Fund.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navneet Chaudhary\Desktop\Fund\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C69A96-24E1-4EF4-B987-B311D2964396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8923148C-2BEB-4EC1-A42E-871A17EFCF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2560A9AC-C4D8-4295-98D2-145EE83BDA15}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -168,7 +168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -176,14 +176,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -520,15 +523,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="A1:F13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
@@ -556,271 +557,365 @@
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="8"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <f>1</f>
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>45766</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9">
-        <v>500</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>500</v>
+      </c>
+      <c r="F2" s="8">
         <f>E2-D2</f>
         <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <f>A2+1</f>
+      <c r="A3" s="10">
+        <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>45766</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
-        <v>500</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>500</v>
+      </c>
+      <c r="F3" s="8">
         <f>F2+E3-D3</f>
         <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <f t="shared" ref="A4:A10" si="0">A3+1</f>
+      <c r="A4" s="10">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>45766</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>500</v>
-      </c>
-      <c r="F4" s="9">
-        <f t="shared" ref="F4:F13" si="1">F3+E4-D4</f>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>500</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" ref="F4:F17" si="1">F3+E4-D4</f>
         <v>1500</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>45766</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>500</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>500</v>
+      </c>
+      <c r="F5" s="8">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>45766</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
-        <v>500</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>500</v>
+      </c>
+      <c r="F6" s="8">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>45766</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
-        <v>500</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>500</v>
+      </c>
+      <c r="F7" s="8">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>45766</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>500</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="1"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <f t="shared" ref="A9:A17" si="2">A8+1</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45766</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8">
+        <v>536</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="1"/>
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>45771</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="8">
+        <v>820</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="1"/>
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>45778</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>500</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="1"/>
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>45780</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>500</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="1"/>
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>45780</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>500</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="1"/>
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>45784</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>500</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="1"/>
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>500</v>
-      </c>
-      <c r="F8" s="9">
-        <f t="shared" si="1"/>
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="6">
-        <v>45766</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B15" s="5">
+        <v>45784</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>500</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="1"/>
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="D9" s="9">
-        <v>536</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
-        <f t="shared" si="1"/>
-        <v>2964</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <f t="shared" si="0"/>
+      <c r="B16" s="5">
+        <v>45784</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>500</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="1"/>
+        <v>5144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>45784</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
-        <v>45771</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="9">
-        <v>820</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <f t="shared" si="1"/>
-        <v>2144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6">
-        <v>45778</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
-        <v>500</v>
-      </c>
-      <c r="F11" s="9">
-        <f t="shared" si="1"/>
-        <v>2644</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6">
-        <v>45780</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
-        <v>500</v>
-      </c>
-      <c r="F12" s="9">
-        <f t="shared" si="1"/>
-        <v>3144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6">
-        <v>45783</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
-        <v>500</v>
-      </c>
-      <c r="F13" s="9">
-        <f t="shared" si="1"/>
-        <v>3644</v>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>500</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="1"/>
+        <v>5644</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}"/>
+  <autoFilter ref="A1:F1" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F13">
+      <sortCondition descending="1" ref="E1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Snacks_Fund.xlsx
+++ b/Snacks_Fund.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navneet Chaudhary\Desktop\Fund\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8923148C-2BEB-4EC1-A42E-871A17EFCF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273326AD-2211-4F87-9EAB-3C3C7B3545CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2560A9AC-C4D8-4295-98D2-145EE83BDA15}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Ghatia from Oshwal</t>
+  </si>
+  <si>
+    <t>Snacks</t>
   </si>
 </sst>
 </file>
@@ -140,7 +143,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -163,12 +166,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -187,7 +201,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -523,9 +538,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -620,7 +637,7 @@
         <v>500</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F17" si="1">F3+E4-D4</f>
+        <f t="shared" ref="F4:F18" si="1">F3+E4-D4</f>
         <v>1500</v>
       </c>
     </row>
@@ -714,7 +731,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <f t="shared" ref="A9:A17" si="2">A8+1</f>
+        <f t="shared" ref="A9:A18" si="2">A8+1</f>
         <v>8</v>
       </c>
       <c r="B9" s="5">
@@ -896,7 +913,7 @@
       <c r="B17" s="5">
         <v>45784</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="9">
@@ -908,6 +925,28 @@
       <c r="F17" s="8">
         <f t="shared" si="1"/>
         <v>5644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>45784</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="8">
+        <v>140</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="1"/>
+        <v>5504</v>
       </c>
     </row>
   </sheetData>

--- a/Snacks_Fund.xlsx
+++ b/Snacks_Fund.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navneet Chaudhary\Desktop\Fund\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273326AD-2211-4F87-9EAB-3C3C7B3545CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971F924E-59E2-4AD8-9450-F26BC6145DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2560A9AC-C4D8-4295-98D2-145EE83BDA15}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Snacks</t>
+  </si>
+  <si>
+    <t>Burger from Burger King</t>
   </si>
 </sst>
 </file>
@@ -143,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -164,17 +167,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -201,8 +193,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -538,17 +530,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C19" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -637,7 +629,7 @@
         <v>500</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F18" si="1">F3+E4-D4</f>
+        <f t="shared" ref="F4:F19" si="1">F3+E4-D4</f>
         <v>1500</v>
       </c>
     </row>
@@ -935,18 +927,39 @@
       <c r="B18" s="5">
         <v>45784</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="8">
         <v>140</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="9">
         <v>0</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" si="1"/>
         <v>5504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
+        <v>45789</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="13">
+        <v>720</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="1"/>
+        <v>4784</v>
       </c>
     </row>
   </sheetData>

--- a/Snacks_Fund.xlsx
+++ b/Snacks_Fund.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navneet Chaudhary\Desktop\Fund\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971F924E-59E2-4AD8-9450-F26BC6145DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72C05A8-D87C-4E42-86D0-38EFD59A0433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2560A9AC-C4D8-4295-98D2-145EE83BDA15}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -89,10 +89,13 @@
     <t>Ghatia from Oshwal</t>
   </si>
   <si>
+    <t>Burger from Burger King</t>
+  </si>
+  <si>
+    <t>Raj pakwan</t>
+  </si>
+  <si>
     <t>Snacks</t>
-  </si>
-  <si>
-    <t>Burger from Burger King</t>
   </si>
 </sst>
 </file>
@@ -193,8 +196,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -530,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C18:C19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A21" sqref="A20:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +632,7 @@
         <v>500</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F19" si="1">F3+E4-D4</f>
+        <f t="shared" ref="F4:F21" si="1">F3+E4-D4</f>
         <v>1500</v>
       </c>
     </row>
@@ -928,7 +931,7 @@
         <v>45784</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" s="8">
         <v>140</v>
@@ -948,10 +951,10 @@
       <c r="B19" s="5">
         <v>45789</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="13">
+      <c r="C19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="8">
         <v>720</v>
       </c>
       <c r="E19" s="9">
@@ -960,6 +963,48 @@
       <c r="F19" s="8">
         <f t="shared" si="1"/>
         <v>4784</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>45798</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="12">
+        <v>780</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="1"/>
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>45798</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12">
+        <v>500</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="1"/>
+        <v>4504</v>
       </c>
     </row>
   </sheetData>

--- a/Snacks_Fund.xlsx
+++ b/Snacks_Fund.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navneet Chaudhary\Desktop\Fund\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72C05A8-D87C-4E42-86D0-38EFD59A0433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE201D93-DA5B-4C40-B35B-054E430BC821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2560A9AC-C4D8-4295-98D2-145EE83BDA15}"/>
   </bookViews>
@@ -102,7 +102,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;₹&quot;\ #,##0;[Red]&quot;₹&quot;\ \-#,##0"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0"/>
   </numFmts>
@@ -197,7 +198,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -535,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A21" sqref="A20:F21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +546,7 @@
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -975,7 +976,7 @@
       <c r="C20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="13">
         <v>780</v>
       </c>
       <c r="E20" s="9">
@@ -993,13 +994,13 @@
       <c r="B21" s="5">
         <v>45798</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="12">
         <v>0</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="13">
         <v>500</v>
       </c>
       <c r="F21" s="8">

--- a/Snacks_Fund.xlsx
+++ b/Snacks_Fund.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navneet Chaudhary\Desktop\Fund\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE201D93-DA5B-4C40-B35B-054E430BC821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE9AAEF-631B-4F02-BC20-B93AA8080FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2560A9AC-C4D8-4295-98D2-145EE83BDA15}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Snacks_Fund" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Snacks_Fund!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Snacks_Fund!$A$1:$F$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -536,9 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1009,11 +1007,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F13">
-      <sortCondition descending="1" ref="E1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:F21" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Snacks_Fund.xlsx
+++ b/Snacks_Fund.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navneet Chaudhary\Desktop\Fund\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE9AAEF-631B-4F02-BC20-B93AA8080FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D523308-9E6E-41FA-B897-2008B36BF4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2560A9AC-C4D8-4295-98D2-145EE83BDA15}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Snacks_Fund" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Snacks_Fund!$A$1:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Snacks_Fund!$A$1:$E$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
-  <si>
-    <t>Sl. No.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Balance</t>
   </si>
@@ -178,11 +175,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -191,12 +185,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -534,480 +522,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>45766</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>500</v>
+      </c>
+      <c r="E2" s="7">
+        <f>D2-C2</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>45766</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>500</v>
+      </c>
+      <c r="E3" s="7">
+        <f>E2+D3-C3</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>45766</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>500</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" ref="E4:E21" si="0">E3+D4-C4</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>45766</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>500</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45766</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>500</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45766</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>500</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45766</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>500</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>45766</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7">
+        <v>536</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>45771</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>45766</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="C10" s="7">
+        <v>820</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>45778</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>500</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>45780</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>500</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>45780</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>500</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>45784</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>500</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>45784</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>500</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>45784</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>500</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>5144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>45784</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8">
-        <v>500</v>
-      </c>
-      <c r="F2" s="8">
-        <f>E2-D2</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <f t="shared" ref="A3:A8" si="0">A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>45766</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>500</v>
-      </c>
-      <c r="F3" s="8">
-        <f>F2+E3-D3</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>45766</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>500</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>5644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>45784</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="7">
+        <v>140</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>5504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>45789</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="7">
+        <v>720</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="0"/>
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>45798</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="10">
+        <v>780</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="0"/>
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>45798</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>500</v>
-      </c>
-      <c r="F4" s="8">
-        <f t="shared" ref="F4:F21" si="1">F3+E4-D4</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>45766</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>500</v>
-      </c>
-      <c r="F5" s="8">
-        <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>45766</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>500</v>
-      </c>
-      <c r="F6" s="8">
-        <f t="shared" si="1"/>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="5">
-        <v>45766</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>500</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>45766</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>500</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" si="1"/>
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <f t="shared" ref="A9:A18" si="2">A8+1</f>
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>45766</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="8">
-        <v>536</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="1"/>
-        <v>2964</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="5">
-        <v>45771</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="8">
-        <v>820</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="1"/>
-        <v>2144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>45778</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>500</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="1"/>
-        <v>2644</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="5">
-        <v>45780</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>500</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" si="1"/>
-        <v>3144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="5">
-        <v>45780</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
-        <v>500</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="1"/>
-        <v>3644</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="5">
-        <v>45784</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8">
-        <v>500</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" si="1"/>
-        <v>4144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="5">
-        <v>45784</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <v>500</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="1"/>
-        <v>4644</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="5">
-        <v>45784</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8">
-        <v>500</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" si="1"/>
-        <v>5144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="5">
-        <v>45784</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8">
-        <v>500</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="1"/>
-        <v>5644</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="5">
-        <v>45784</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="8">
-        <v>140</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" si="1"/>
-        <v>5504</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5">
-        <v>45789</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="8">
-        <v>720</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" si="1"/>
-        <v>4784</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5">
-        <v>45798</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="13">
-        <v>780</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" si="1"/>
-        <v>4004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5">
-        <v>45798</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="13">
-        <v>500</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="1"/>
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10">
+        <v>500</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="0"/>
         <v>4504</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F21" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}"/>
+  <autoFilter ref="A1:E21" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Snacks_Fund.xlsx
+++ b/Snacks_Fund.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navneet Chaudhary\Desktop\Fund\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D523308-9E6E-41FA-B897-2008B36BF4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A097065C-B88B-470E-B8A8-4C5001EC2B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2560A9AC-C4D8-4295-98D2-145EE83BDA15}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Snacks_Fund" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Snacks_Fund!$A$1:$E$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Snacks_Fund!$A$1:$E$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Balance</t>
   </si>
@@ -90,19 +90,18 @@
   </si>
   <si>
     <t>Raj pakwan</t>
-  </si>
-  <si>
-    <t>Snacks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;₹&quot;\ #,##0;[Red]&quot;₹&quot;\ \-#,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;₹&quot;\ #,##0.00;[Red]&quot;₹&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -147,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -170,12 +169,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -187,6 +197,11 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -522,10 +537,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +551,7 @@
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -554,6 +570,7 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="F1" s="15"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -826,7 +843,7 @@
         <v>5144</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45784</v>
       </c>
@@ -844,7 +861,7 @@
         <v>5644</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45784</v>
       </c>
@@ -862,7 +879,7 @@
         <v>5504</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45789</v>
       </c>
@@ -880,44 +897,77 @@
         <v>4784</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45798</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="10">
-        <v>780</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10">
+        <v>500</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" si="0"/>
-        <v>4004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5284</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>45798</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="9">
-        <v>0</v>
-      </c>
-      <c r="D21" s="10">
-        <v>500</v>
+        <v>7</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="14">
+        <f>C22/8</f>
+        <v>97.5</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" si="0"/>
+        <v>5381.5</v>
+      </c>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>45798</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="10">
+        <v>780</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
+        <f>E20+D22-C22</f>
         <v>4504</v>
       </c>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E21" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}"/>
+  <autoFilter ref="A1:E20" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Snacks_Fund.xlsx
+++ b/Snacks_Fund.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navneet Chaudhary\Desktop\Fund\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A097065C-B88B-470E-B8A8-4C5001EC2B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AE350B-DD57-4C62-BBCD-2157975212A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2560A9AC-C4D8-4295-98D2-145EE83BDA15}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Balance</t>
   </si>
@@ -89,7 +89,10 @@
     <t>Burger from Burger King</t>
   </si>
   <si>
-    <t>Raj pakwan</t>
+    <t>Samosa</t>
+  </si>
+  <si>
+    <t>Dal pakwan</t>
   </si>
 </sst>
 </file>
@@ -185,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -201,7 +204,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -540,8 +545,8 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +871,7 @@
         <v>45784</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
         <v>140</v>
@@ -924,7 +929,9 @@
       <c r="B21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
       <c r="D21" s="14">
         <f>C22/8</f>
         <v>97.5</v>
@@ -955,7 +962,22 @@
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="11"/>
+      <c r="A23" s="4">
+        <v>45806</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="17">
+        <v>310</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <f>E21+D23-C23</f>
+        <v>5071.5</v>
+      </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>

--- a/Snacks_Fund.xlsx
+++ b/Snacks_Fund.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navneet Chaudhary\Desktop\Fund\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AE350B-DD57-4C62-BBCD-2157975212A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE789C1E-5AD2-4DB2-BCD6-FD00CA2DDE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2560A9AC-C4D8-4295-98D2-145EE83BDA15}"/>
   </bookViews>
   <sheets>
     <sheet name="Snacks_Fund" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Snacks_Fund!$A$1:$E$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Snacks_Fund!$A$1:$E$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>Balance</t>
   </si>
@@ -188,7 +189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -203,10 +204,9 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -542,11 +542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +575,7 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="15"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>500</v>
       </c>
       <c r="E4" s="7">
-        <f t="shared" ref="E4:E21" si="0">E3+D4-C4</f>
+        <f t="shared" ref="E4:E20" si="0">E3+D4-C4</f>
         <v>1500</v>
       </c>
     </row>
@@ -927,70 +927,236 @@
         <v>45798</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="9">
-        <v>0</v>
-      </c>
-      <c r="D21" s="14">
-        <f>C22/8</f>
-        <v>97.5</v>
+        <v>5</v>
+      </c>
+      <c r="C21" s="10">
+        <v>780</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
       </c>
       <c r="E21" s="7">
-        <f t="shared" si="0"/>
-        <v>5381.5</v>
+        <f>E20+D21-C21</f>
+        <v>4504</v>
       </c>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>45798</v>
+        <v>45806</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="10">
-        <v>780</v>
+        <v>16</v>
+      </c>
+      <c r="C22" s="15">
+        <v>310</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
       </c>
       <c r="E22" s="7">
-        <f>E20+D22-C22</f>
-        <v>4504</v>
+        <f>E21+D22-C22</f>
+        <v>4194</v>
       </c>
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>45806</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="17">
-        <v>310</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
+        <v>45815</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="16">
+        <f>$E$22/8</f>
+        <v>524.25</v>
+      </c>
+      <c r="D23" s="5"/>
       <c r="E23" s="7">
-        <f>E21+D23-C23</f>
-        <v>5071.5</v>
+        <f t="shared" ref="E23:E30" si="1">E22+D23-C23</f>
+        <v>3669.75</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="11"/>
+      <c r="A24" s="4">
+        <v>45815</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="16">
+        <f t="shared" ref="C24:C30" si="2">$E$22/8</f>
+        <v>524.25</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="7">
+        <f t="shared" si="1"/>
+        <v>3145.5</v>
+      </c>
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="11"/>
+      <c r="A25" s="4">
+        <v>45815</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="16">
+        <f t="shared" si="2"/>
+        <v>524.25</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="7">
+        <f t="shared" si="1"/>
+        <v>2621.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>45815</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="16">
+        <f t="shared" si="2"/>
+        <v>524.25</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="7">
+        <f t="shared" si="1"/>
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>45815</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="16">
+        <f t="shared" si="2"/>
+        <v>524.25</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="7">
+        <f t="shared" si="1"/>
+        <v>1572.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>45815</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="16">
+        <f t="shared" si="2"/>
+        <v>524.25</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="7">
+        <f t="shared" si="1"/>
+        <v>1048.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>45815</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="16">
+        <f t="shared" si="2"/>
+        <v>524.25</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="7">
+        <f t="shared" si="1"/>
+        <v>524.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>45815</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="16">
+        <f t="shared" si="2"/>
+        <v>524.25</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E20" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}"/>
+  <autoFilter ref="A1:E22" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FB6478-FB4A-4D83-8EE8-A1130929FFDB}">
+  <dimension ref="B1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Snacks_Fund.xlsx
+++ b/Snacks_Fund.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navneet Chaudhary\Desktop\Fund\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE789C1E-5AD2-4DB2-BCD6-FD00CA2DDE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB2B6A9-8B4E-432C-A0B6-45BBDB2F539B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2560A9AC-C4D8-4295-98D2-145EE83BDA15}"/>
   </bookViews>
   <sheets>
     <sheet name="Snacks_Fund" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Snacks_Fund!$A$1:$E$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Snacks_Fund!$A$1:$E$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>Balance</t>
   </si>
@@ -189,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -202,11 +201,13 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -545,8 +546,8 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E30"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +576,7 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="14"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -919,8 +920,8 @@
         <f t="shared" si="0"/>
         <v>5284</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -939,7 +940,7 @@
         <f>E20+D21-C21</f>
         <v>4504</v>
       </c>
-      <c r="F21" s="13"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -948,7 +949,7 @@
       <c r="B22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <v>310</v>
       </c>
       <c r="D22" s="8">
@@ -959,22 +960,22 @@
         <v>4194</v>
       </c>
       <c r="F22" s="12"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>45815</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="16">
-        <f>$E$22/8</f>
-        <v>524.25</v>
+      <c r="C23" s="18">
+        <v>562.53571428571422</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="7">
         <f t="shared" ref="E23:E30" si="1">E22+D23-C23</f>
-        <v>3669.75</v>
+        <v>3631.4642857142858</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -983,17 +984,16 @@
       <c r="A24" s="4">
         <v>45815</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="16">
-        <f t="shared" ref="C24:C30" si="2">$E$22/8</f>
-        <v>524.25</v>
-      </c>
-      <c r="D24" s="16"/>
+      <c r="C24" s="18">
+        <v>562.53571428571422</v>
+      </c>
+      <c r="D24" s="15"/>
       <c r="E24" s="7">
         <f t="shared" si="1"/>
-        <v>3145.5</v>
+        <v>3068.9285714285716</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -1001,51 +1001,48 @@
       <c r="A25" s="4">
         <v>45815</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="16">
-        <f t="shared" si="2"/>
-        <v>524.25</v>
+      <c r="C25" s="18">
+        <v>562.53571428571422</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="7">
         <f t="shared" si="1"/>
-        <v>2621.25</v>
+        <v>2506.3928571428573</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>45815</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="16">
-        <f t="shared" si="2"/>
-        <v>524.25</v>
+      <c r="C26" s="18">
+        <v>562.53571428571422</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="7">
         <f t="shared" si="1"/>
-        <v>2097</v>
+        <v>1943.8571428571431</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>45815</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="16">
-        <f t="shared" si="2"/>
-        <v>524.25</v>
+      <c r="C27" s="18">
+        <v>562.53571428571422</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="7">
         <f t="shared" si="1"/>
-        <v>1572.75</v>
+        <v>1381.3214285714289</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1055,31 +1052,29 @@
       <c r="B28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="16">
-        <f t="shared" si="2"/>
-        <v>524.25</v>
+      <c r="C28" s="18">
+        <v>562.53571428571422</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="7">
         <f t="shared" si="1"/>
-        <v>1048.5</v>
+        <v>818.78571428571468</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45815</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="16">
-        <f t="shared" si="2"/>
-        <v>524.25</v>
+      <c r="C29" s="18">
+        <v>562.53571428571422</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="7">
         <f t="shared" si="1"/>
-        <v>524.25</v>
+        <v>256.25000000000045</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1089,74 +1084,18 @@
       <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="16">
-        <f t="shared" si="2"/>
-        <v>524.25</v>
+      <c r="C30" s="18">
+        <v>256.25</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.5474735088646412E-13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E22" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}"/>
+  <autoFilter ref="A1:E30" xr:uid="{B545176B-30B3-4614-866A-A0BD9961EEF2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FB6478-FB4A-4D83-8EE8-A1130929FFDB}">
-  <dimension ref="B1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>